--- a/FitOutput/IfitSummary3.xlsx
+++ b/FitOutput/IfitSummary3.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lopez/cernbox/phd/hermes-analysis/FitOutput/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="0" windowWidth="23360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
   <si>
     <t>iFit Info: Energy Loss: 1 - He subtraction: 0 with correlation = 0</t>
   </si>
@@ -157,6 +165,18 @@
   </si>
   <si>
     <t>Xenon</t>
+  </si>
+  <si>
+    <t>qhat uncertainty</t>
+  </si>
+  <si>
+    <t>delta pT2 uncertainties from model consider 10% more</t>
+  </si>
+  <si>
+    <t>Correlation Factor</t>
+  </si>
+  <si>
+    <t>pt2::Lp</t>
   </si>
 </sst>
 </file>
@@ -789,6 +809,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1116,13 +1141,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Z55" sqref="Z55:Z56"/>
+    <sheetView tabSelected="1" topLeftCell="O62" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1224,12 +1253,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.32</v>
       </c>
@@ -1283,7 +1312,7 @@
         <v>0.76084273899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.53</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>0.69301632849999995</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.75</v>
       </c>
@@ -1391,7 +1420,7 @@
         <v>0.61593068819999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.94</v>
       </c>
@@ -1445,12 +1474,12 @@
         <v>0.49016136739999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.32</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>0.75496777140000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.53</v>
       </c>
@@ -1558,7 +1587,7 @@
         <v>0.69163082190000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.75</v>
       </c>
@@ -1612,7 +1641,7 @@
         <v>0.61818367320000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.94</v>
       </c>
@@ -1666,12 +1695,12 @@
         <v>0.49166231859999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.32</v>
       </c>
@@ -1725,7 +1754,7 @@
         <v>0.75662763249999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.53</v>
       </c>
@@ -1779,7 +1808,7 @@
         <v>0.69244021789999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.75</v>
       </c>
@@ -1833,7 +1862,7 @@
         <v>0.61822866080000005</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.94</v>
       </c>
@@ -1887,12 +1916,12 @@
         <v>0.4915032003</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.32</v>
       </c>
@@ -1946,7 +1975,7 @@
         <v>0.75854320610000003</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.53</v>
       </c>
@@ -2000,7 +2029,7 @@
         <v>0.69333852269999996</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.75</v>
       </c>
@@ -2054,7 +2083,7 @@
         <v>0.61848687189999996</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.94</v>
       </c>
@@ -2108,7 +2137,7 @@
         <v>0.49100076970000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2210,12 +2239,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.32</v>
       </c>
@@ -2269,7 +2298,7 @@
         <v>0.76213908190000001</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.53</v>
       </c>
@@ -2323,7 +2352,7 @@
         <v>0.69900106240000004</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.75</v>
       </c>
@@ -2377,7 +2406,7 @@
         <v>0.63087115130000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.94</v>
       </c>
@@ -2431,12 +2460,12 @@
         <v>0.50731926949999995</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.32</v>
       </c>
@@ -2490,7 +2519,7 @@
         <v>0.75755026390000002</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.53</v>
       </c>
@@ -2544,7 +2573,7 @@
         <v>0.69709538289999995</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.75</v>
       </c>
@@ -2598,7 +2627,7 @@
         <v>0.63098915850000004</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.94</v>
       </c>
@@ -2652,12 +2681,12 @@
         <v>0.50753184380000005</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.32</v>
       </c>
@@ -2711,7 +2740,7 @@
         <v>0.75903353230000004</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.53</v>
       </c>
@@ -2765,7 +2794,7 @@
         <v>0.698067404</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.75</v>
       </c>
@@ -2819,7 +2848,7 @@
         <v>0.63112413599999995</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.94</v>
       </c>
@@ -2873,12 +2902,12 @@
         <v>0.50759136439999997</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.32</v>
       </c>
@@ -2932,7 +2961,7 @@
         <v>0.7601510172</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.53</v>
       </c>
@@ -2986,7 +3015,7 @@
         <v>0.69920514960000002</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.75</v>
       </c>
@@ -3040,7 +3069,7 @@
         <v>0.63108219980000002</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.94</v>
       </c>
@@ -3094,7 +3123,7 @@
         <v>0.50744029400000001</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -3227,7 +3256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3277,7 @@
         <v>17.464579208157151</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.32</v>
       </c>
@@ -3350,7 +3379,7 @@
         <v>1.6287572504027647E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.53</v>
       </c>
@@ -3452,7 +3481,7 @@
         <v>1.8162884220688385E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.75</v>
       </c>
@@ -3554,7 +3583,7 @@
         <v>1.4218972573984878E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.94</v>
       </c>
@@ -3656,12 +3685,12 @@
         <v>3.1170947373646411E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.32</v>
       </c>
@@ -3727,7 +3756,7 @@
         <v>-0.38029351774407888</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.53</v>
       </c>
@@ -3793,7 +3822,7 @@
         <v>-0.3672844904647346</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.75</v>
       </c>
@@ -3863,7 +3892,7 @@
         <v>9.7938660530395307E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.94</v>
       </c>
@@ -3933,12 +3962,12 @@
         <v>4.0870829216274789E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.32</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>-0.25710824328000004</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.53</v>
       </c>
@@ -4070,7 +4099,7 @@
         <v>-0.24831312057999999</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.75</v>
       </c>
@@ -4136,7 +4165,7 @@
         <v>-0.64361879357999996</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.94</v>
       </c>
@@ -4202,12 +4231,12 @@
         <v>-0.50733481638</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.32</v>
       </c>
@@ -4261,7 +4290,7 @@
         <v>0.76005504719999994</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.53</v>
       </c>
@@ -4315,7 +4344,7 @@
         <v>0.69283852629999998</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.75</v>
       </c>
@@ -4369,7 +4398,7 @@
         <v>0.61674821989999995</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.94</v>
       </c>
@@ -4423,12 +4452,12 @@
         <v>0.49075645849999999</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.32</v>
       </c>
@@ -4482,7 +4511,7 @@
         <v>0.76234102130000003</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.53</v>
       </c>
@@ -4536,7 +4565,7 @@
         <v>0.69396222699999999</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.75</v>
       </c>
@@ -4590,7 +4619,7 @@
         <v>0.61727543279999997</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.94</v>
       </c>
@@ -4644,7 +4673,7 @@
         <v>0.49908136409999998</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>40</v>
       </c>
@@ -4693,7 +4722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -4745,13 +4774,21 @@
       <c r="Q73" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="V73">
+        <f>0.0122/8.1562</f>
+        <v>1.4957946102351586E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="V74">
+        <f>V73*V73</f>
+        <v>2.2374015160085499E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.32</v>
       </c>
@@ -4805,7 +4842,7 @@
         <v>0.7501587676</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.53</v>
       </c>
@@ -4859,7 +4896,7 @@
         <v>0.69748714239999998</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.75</v>
       </c>
@@ -4913,7 +4950,7 @@
         <v>0.63472120070000004</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.94</v>
       </c>
@@ -4967,12 +5004,12 @@
         <v>0.50864535779999998</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.32</v>
       </c>
@@ -5026,7 +5063,7 @@
         <v>0.74969164109999997</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.53</v>
       </c>
@@ -5080,7 +5117,7 @@
         <v>0.69658459549999996</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.75</v>
       </c>
@@ -5133,8 +5170,14 @@
       <c r="Q82">
         <v>0.63359728010000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="Z82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC82" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.94</v>
       </c>
@@ -5187,13 +5230,31 @@
       <c r="Q83">
         <v>0.50787223420000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="S83" t="s">
+        <v>47</v>
+      </c>
+      <c r="W83" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB83" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="W84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.32</v>
       </c>
@@ -5246,8 +5307,44 @@
       <c r="Q85">
         <v>0.74937734700000003</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="S85">
+        <v>1.3060000000000001E-3</v>
+      </c>
+      <c r="T85">
+        <v>2.2490000000000001E-3</v>
+      </c>
+      <c r="U85">
+        <v>2.588E-3</v>
+      </c>
+      <c r="W85">
+        <v>0.402306</v>
+      </c>
+      <c r="Z85">
+        <f>L85/$C85</f>
+        <v>1.4951505546403621E-3</v>
+      </c>
+      <c r="AA85">
+        <f>M85/$C85</f>
+        <v>2.5433670549200619E-3</v>
+      </c>
+      <c r="AB85">
+        <f>N85/$C85</f>
+        <v>2.9317785183421282E-3</v>
+      </c>
+      <c r="AC85">
+        <f>SQRT(POWER(Z85,2)*(POWER($G85/$C85,2) + POWER(S85/L85,2) - 2*$W85*S85*$G85/($C85*L85)))</f>
+        <v>2.9677300048678332E-4</v>
+      </c>
+      <c r="AD85">
+        <f t="shared" ref="AD85:AE88" si="25">SQRT(POWER(AA85,2)*(POWER($G85/$C85,2) + POWER(T85/M85,2) - 2*$W85*T85*$G85/($C85*M85)))</f>
+        <v>5.0518891136122276E-4</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="25"/>
+        <v>5.8227975903572761E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.53</v>
       </c>
@@ -5279,7 +5376,7 @@
         <v>2.6273119999999999</v>
       </c>
       <c r="K86">
-        <f t="shared" ref="K86:K88" si="25">J86/4</f>
+        <f t="shared" ref="K86:K88" si="26">J86/4</f>
         <v>0.65682799999999997</v>
       </c>
       <c r="L86">
@@ -5300,8 +5397,44 @@
       <c r="Q86">
         <v>0.69567167429999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="S86">
+        <v>2.173E-3</v>
+      </c>
+      <c r="T86">
+        <v>3.6449999999999998E-3</v>
+      </c>
+      <c r="U86">
+        <v>4.1520000000000003E-3</v>
+      </c>
+      <c r="W86">
+        <v>0.34463300000000002</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" ref="Z86:Z88" si="27">L86/$C86</f>
+        <v>2.1694316589551737E-3</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" ref="AA86:AA88" si="28">M86/$C86</f>
+        <v>3.5952913179444828E-3</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" ref="AB86:AB88" si="29">N86/$C86</f>
+        <v>4.10133953717724E-3</v>
+      </c>
+      <c r="AC86">
+        <f t="shared" ref="AC86:AC88" si="30">SQRT(POWER(Z86,2)*(POWER($G86/$C86,2) + POWER(S86/L86,2) - 2*$W86*S86*$G86/($C86*L86)))</f>
+        <v>3.9537154535926019E-4</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="25"/>
+        <v>6.5960280022782239E-4</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="25"/>
+        <v>7.5183733104956969E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.75</v>
       </c>
@@ -5333,7 +5466,7 @@
         <v>1.0790763139999999</v>
       </c>
       <c r="K87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.26976907849999998</v>
       </c>
       <c r="L87">
@@ -5354,8 +5487,44 @@
       <c r="Q87">
         <v>0.63241469370000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="S87">
+        <v>5.1970000000000002E-3</v>
+      </c>
+      <c r="T87">
+        <v>8.4159999999999999E-3</v>
+      </c>
+      <c r="U87">
+        <v>9.4619999999999999E-3</v>
+      </c>
+      <c r="W87">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="27"/>
+        <v>1.2156313942003705E-3</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="28"/>
+        <v>1.9465657937639074E-3</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="29"/>
+        <v>2.1916922468700893E-3</v>
+      </c>
+      <c r="AC87">
+        <f t="shared" si="30"/>
+        <v>1.1783130061355474E-3</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="25"/>
+        <v>1.9075909867369988E-3</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="25"/>
+        <v>2.1447612221224838E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.94</v>
       </c>
@@ -5387,7 +5556,7 @@
         <v>0.90862676720000002</v>
       </c>
       <c r="K88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2271566918</v>
       </c>
       <c r="L88">
@@ -5408,13 +5577,49 @@
       <c r="Q88">
         <v>0.50738526819999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="S88">
+        <v>7.9719999999999999E-3</v>
+      </c>
+      <c r="T88">
+        <v>1.1872000000000001E-2</v>
+      </c>
+      <c r="U88">
+        <v>1.2984000000000001E-2</v>
+      </c>
+      <c r="W88">
+        <v>3.0476E-2</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="27"/>
+        <v>1.8217161329330922E-3</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="28"/>
+        <v>2.6863262370958236E-3</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="29"/>
+        <v>2.9411366064565534E-3</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" si="30"/>
+        <v>3.3957319448244933E-3</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="25"/>
+        <v>5.0565992596456767E-3</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="25"/>
+        <v>5.5302732283210284E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.32</v>
       </c>
@@ -5467,8 +5672,20 @@
       <c r="Q90">
         <v>0.74939418660000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="S90">
+        <f>S85/L85</f>
+        <v>0.10709438811703763</v>
+      </c>
+      <c r="T90">
+        <f t="shared" ref="T90:U90" si="31">T85/M85</f>
+        <v>0.10841487594247236</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="31"/>
+        <v>0.10822848441368245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.53</v>
       </c>
@@ -5500,7 +5717,7 @@
         <v>2.702811208</v>
       </c>
       <c r="K91">
-        <f t="shared" ref="K91:K93" si="26">J91/4</f>
+        <f t="shared" ref="K91:K93" si="32">J91/4</f>
         <v>0.67570280199999999</v>
       </c>
       <c r="L91">
@@ -5521,8 +5738,20 @@
       <c r="Q91">
         <v>0.6947891343</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="S91">
+        <f t="shared" ref="S91:S93" si="33">S86/L86</f>
+        <v>0.16381359595281725</v>
+      </c>
+      <c r="T91">
+        <f t="shared" ref="T91:T93" si="34">T86/M86</f>
+        <v>0.16580576922388557</v>
+      </c>
+      <c r="U91">
+        <f t="shared" ref="U91:U93" si="35">U86/N86</f>
+        <v>0.16556472469553848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.75</v>
       </c>
@@ -5554,7 +5783,7 @@
         <v>1.0156602379999999</v>
       </c>
       <c r="K92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.25391505949999998</v>
       </c>
       <c r="L92">
@@ -5575,8 +5804,20 @@
       <c r="Q92">
         <v>0.63140517060000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="S92">
+        <f t="shared" si="33"/>
+        <v>0.95893117835681274</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="34"/>
+        <v>0.9697801027246834</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="35"/>
+        <v>0.96836704724444433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.94</v>
       </c>
@@ -5608,7 +5849,7 @@
         <v>0.894586616</v>
       </c>
       <c r="K93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.223646654</v>
       </c>
       <c r="L93">
@@ -5629,13 +5870,25 @@
       <c r="Q93">
         <v>0.50748382059999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="S93">
+        <f t="shared" si="33"/>
+        <v>1.8600033243709693</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="34"/>
+        <v>1.8784181198312901</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="35"/>
+        <v>1.8763784870590745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.32</v>
       </c>
@@ -5689,7 +5942,7 @@
         <v>0.75012551149999995</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53</v>
       </c>
@@ -5721,7 +5974,7 @@
         <v>2.8665499479999998</v>
       </c>
       <c r="K96">
-        <f t="shared" ref="K96:K98" si="27">J96/4</f>
+        <f t="shared" ref="K96:K98" si="36">J96/4</f>
         <v>0.71663748699999996</v>
       </c>
       <c r="L96">
@@ -5743,7 +5996,7 @@
         <v>0.69431545299999997</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.75</v>
       </c>
@@ -5775,7 +6028,7 @@
         <v>0.98096795339999998</v>
       </c>
       <c r="K97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.24524198835</v>
       </c>
       <c r="L97">
@@ -5797,7 +6050,7 @@
         <v>0.63088593839999996</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.94</v>
       </c>
@@ -5829,7 +6082,7 @@
         <v>0.95517920180000004</v>
       </c>
       <c r="K98">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.23879480045000001</v>
       </c>
       <c r="L98">
@@ -5854,10 +6107,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/FitOutput/IfitSummary3.xlsx
+++ b/FitOutput/IfitSummary3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lopez/cernbox/phd/hermes-analysis/FitOutput/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30218EF4-14E0-F14C-9114-864470CC80FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -812,6 +813,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1138,17 +1142,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O62" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="W85" sqref="W85"/>
+    <sheetView tabSelected="1" topLeftCell="V68" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH90" sqref="AH90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -5063,7 +5068,7 @@
         <v>0.74969164109999997</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.53</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>0.69658459549999996</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.75</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.94</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.32</v>
       </c>
@@ -5343,8 +5348,20 @@
         <f t="shared" si="25"/>
         <v>5.8227975903572761E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG85">
+        <f>SQRT((L85*L85*$G85*$G85 + S85*S85*$C85*$C85)/POWER($C85,4))</f>
+        <v>3.6002576584301046E-4</v>
+      </c>
+      <c r="AH85">
+        <f t="shared" ref="AH85:AI88" si="26">SQRT((M85*M85*$G85*$G85 + T85*T85*$C85*$C85)/POWER($C85,4))</f>
+        <v>6.1393281342569028E-4</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="26"/>
+        <v>7.0744457857414822E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.53</v>
       </c>
@@ -5376,7 +5393,7 @@
         <v>2.6273119999999999</v>
       </c>
       <c r="K86">
-        <f t="shared" ref="K86:K88" si="26">J86/4</f>
+        <f t="shared" ref="K86:K88" si="27">J86/4</f>
         <v>0.65682799999999997</v>
       </c>
       <c r="L86">
@@ -5410,19 +5427,19 @@
         <v>0.34463300000000002</v>
       </c>
       <c r="Z86">
-        <f t="shared" ref="Z86:Z88" si="27">L86/$C86</f>
+        <f t="shared" ref="Z86:Z88" si="28">L86/$C86</f>
         <v>2.1694316589551737E-3</v>
       </c>
       <c r="AA86">
-        <f t="shared" ref="AA86:AA88" si="28">M86/$C86</f>
+        <f t="shared" ref="AA86:AA88" si="29">M86/$C86</f>
         <v>3.5952913179444828E-3</v>
       </c>
       <c r="AB86">
-        <f t="shared" ref="AB86:AB88" si="29">N86/$C86</f>
+        <f t="shared" ref="AB86:AB88" si="30">N86/$C86</f>
         <v>4.10133953717724E-3</v>
       </c>
       <c r="AC86">
-        <f t="shared" ref="AC86:AC88" si="30">SQRT(POWER(Z86,2)*(POWER($G86/$C86,2) + POWER(S86/L86,2) - 2*$W86*S86*$G86/($C86*L86)))</f>
+        <f t="shared" ref="AC86:AC88" si="31">SQRT(POWER(Z86,2)*(POWER($G86/$C86,2) + POWER(S86/L86,2) - 2*$W86*S86*$G86/($C86*L86)))</f>
         <v>3.9537154535926019E-4</v>
       </c>
       <c r="AD86">
@@ -5433,8 +5450,20 @@
         <f t="shared" si="25"/>
         <v>7.5183733104956969E-4</v>
       </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG86">
+        <f t="shared" ref="AG86:AG88" si="32">SQRT((L86*L86*$G86*$G86 + S86*S86*$C86*$C86)/POWER($C86,4))</f>
+        <v>4.8815470488339485E-4</v>
+      </c>
+      <c r="AH86">
+        <f t="shared" si="26"/>
+        <v>8.1422369227673516E-4</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="26"/>
+        <v>9.2810461409229732E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.75</v>
       </c>
@@ -5466,7 +5495,7 @@
         <v>1.0790763139999999</v>
       </c>
       <c r="K87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.26976907849999998</v>
       </c>
       <c r="L87">
@@ -5500,19 +5529,19 @@
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.2156313942003705E-3</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.9465657937639074E-3</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.1916922468700893E-3</v>
       </c>
       <c r="AC87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.1783130061355474E-3</v>
       </c>
       <c r="AD87">
@@ -5523,8 +5552,20 @@
         <f t="shared" si="25"/>
         <v>2.1447612221224838E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG87">
+        <f t="shared" si="32"/>
+        <v>1.1845655968663214E-3</v>
+      </c>
+      <c r="AH87">
+        <f t="shared" si="26"/>
+        <v>1.9176063741806095E-3</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="26"/>
+        <v>2.1560373553765853E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.94</v>
       </c>
@@ -5556,7 +5597,7 @@
         <v>0.90862676720000002</v>
       </c>
       <c r="K88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.2271566918</v>
       </c>
       <c r="L88">
@@ -5590,19 +5631,19 @@
         <v>3.0476E-2</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.8217161329330922E-3</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.6863262370958236E-3</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9411366064565534E-3</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.3957319448244933E-3</v>
       </c>
       <c r="AD88">
@@ -5613,13 +5654,25 @@
         <f t="shared" si="25"/>
         <v>5.5302732283210284E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AG88">
+        <f t="shared" si="32"/>
+        <v>3.4063305281982581E-3</v>
+      </c>
+      <c r="AH88">
+        <f t="shared" si="26"/>
+        <v>5.0722294352769466E-3</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="26"/>
+        <v>5.547385834314837E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.32</v>
       </c>
@@ -5677,15 +5730,15 @@
         <v>0.10709438811703763</v>
       </c>
       <c r="T90">
-        <f t="shared" ref="T90:U90" si="31">T85/M85</f>
+        <f t="shared" ref="T90:U90" si="33">T85/M85</f>
         <v>0.10841487594247236</v>
       </c>
       <c r="U90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10822848441368245</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.53</v>
       </c>
@@ -5717,7 +5770,7 @@
         <v>2.702811208</v>
       </c>
       <c r="K91">
-        <f t="shared" ref="K91:K93" si="32">J91/4</f>
+        <f t="shared" ref="K91:K93" si="34">J91/4</f>
         <v>0.67570280199999999</v>
       </c>
       <c r="L91">
@@ -5739,19 +5792,19 @@
         <v>0.6947891343</v>
       </c>
       <c r="S91">
-        <f t="shared" ref="S91:S93" si="33">S86/L86</f>
+        <f t="shared" ref="S91:S93" si="35">S86/L86</f>
         <v>0.16381359595281725</v>
       </c>
       <c r="T91">
-        <f t="shared" ref="T91:T93" si="34">T86/M86</f>
+        <f t="shared" ref="T91:T93" si="36">T86/M86</f>
         <v>0.16580576922388557</v>
       </c>
       <c r="U91">
-        <f t="shared" ref="U91:U93" si="35">U86/N86</f>
+        <f t="shared" ref="U91:U93" si="37">U86/N86</f>
         <v>0.16556472469553848</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.75</v>
       </c>
@@ -5783,7 +5836,7 @@
         <v>1.0156602379999999</v>
       </c>
       <c r="K92">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.25391505949999998</v>
       </c>
       <c r="L92">
@@ -5805,19 +5858,19 @@
         <v>0.63140517060000001</v>
       </c>
       <c r="S92">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.95893117835681274</v>
       </c>
       <c r="T92">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.9697801027246834</v>
       </c>
       <c r="U92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.96836704724444433</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.94</v>
       </c>
@@ -5849,7 +5902,7 @@
         <v>0.894586616</v>
       </c>
       <c r="K93">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.223646654</v>
       </c>
       <c r="L93">
@@ -5871,24 +5924,24 @@
         <v>0.50748382059999997</v>
       </c>
       <c r="S93">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.8600033243709693</v>
       </c>
       <c r="T93">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.8784181198312901</v>
       </c>
       <c r="U93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.8763784870590745</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.32</v>
       </c>
@@ -5942,7 +5995,7 @@
         <v>0.75012551149999995</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.53</v>
       </c>
@@ -5974,7 +6027,7 @@
         <v>2.8665499479999998</v>
       </c>
       <c r="K96">
-        <f t="shared" ref="K96:K98" si="36">J96/4</f>
+        <f t="shared" ref="K96:K98" si="38">J96/4</f>
         <v>0.71663748699999996</v>
       </c>
       <c r="L96">
@@ -6028,7 +6081,7 @@
         <v>0.98096795339999998</v>
       </c>
       <c r="K97">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.24524198835</v>
       </c>
       <c r="L97">
@@ -6082,7 +6135,7 @@
         <v>0.95517920180000004</v>
       </c>
       <c r="K98">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.23879480045000001</v>
       </c>
       <c r="L98">
